--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Igfbp4-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Igfbp4-Lrp6.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.568356333333334</v>
+        <v>1.805635333333334</v>
       </c>
       <c r="H2">
-        <v>28.705069</v>
+        <v>5.416906000000001</v>
       </c>
       <c r="I2">
-        <v>0.09973288675158326</v>
+        <v>0.01900969238460649</v>
       </c>
       <c r="J2">
-        <v>0.09973288675158329</v>
+        <v>0.01900969238460649</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.999936</v>
+        <v>8.676671000000001</v>
       </c>
       <c r="N2">
-        <v>41.999808</v>
+        <v>26.030013</v>
       </c>
       <c r="O2">
-        <v>0.2017049292741484</v>
+        <v>0.1325240072999665</v>
       </c>
       <c r="P2">
-        <v>0.2017049292741485</v>
+        <v>0.1325240072999665</v>
       </c>
       <c r="Q2">
-        <v>133.9563762918613</v>
+        <v>15.66690373330867</v>
       </c>
       <c r="R2">
-        <v>1205.607386626752</v>
+        <v>141.002133599778</v>
       </c>
       <c r="S2">
-        <v>0.02011661486853476</v>
+        <v>0.002519240612347708</v>
       </c>
       <c r="T2">
-        <v>0.02011661486853477</v>
+        <v>0.002519240612347708</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.568356333333334</v>
+        <v>1.805635333333334</v>
       </c>
       <c r="H3">
-        <v>28.705069</v>
+        <v>5.416906000000001</v>
       </c>
       <c r="I3">
-        <v>0.09973288675158326</v>
+        <v>0.01900969238460649</v>
       </c>
       <c r="J3">
-        <v>0.09973288675158329</v>
+        <v>0.01900969238460649</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>37.74750533333333</v>
+        <v>37.74750533333334</v>
       </c>
       <c r="N3">
         <v>113.242516</v>
       </c>
       <c r="O3">
-        <v>0.5438494785644405</v>
+        <v>0.5765403197090441</v>
       </c>
       <c r="P3">
-        <v>0.5438494785644407</v>
+        <v>0.576540319709044</v>
       </c>
       <c r="Q3">
-        <v>361.1815817237338</v>
+        <v>68.15822937505513</v>
       </c>
       <c r="R3">
-        <v>3250.634235513604</v>
+        <v>613.4240643754962</v>
       </c>
       <c r="S3">
-        <v>0.05423967845557496</v>
+        <v>0.01095985412499161</v>
       </c>
       <c r="T3">
-        <v>0.05423967845557498</v>
+        <v>0.0109598541249916</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.568356333333334</v>
+        <v>1.805635333333334</v>
       </c>
       <c r="H4">
-        <v>28.705069</v>
+        <v>5.416906000000001</v>
       </c>
       <c r="I4">
-        <v>0.09973288675158326</v>
+        <v>0.01900969238460649</v>
       </c>
       <c r="J4">
-        <v>0.09973288675158329</v>
+        <v>0.01900969238460649</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.66056</v>
+        <v>19.04827033333333</v>
       </c>
       <c r="N4">
-        <v>52.98168</v>
+        <v>57.144811</v>
       </c>
       <c r="O4">
-        <v>0.2544455921614109</v>
+        <v>0.2909356729909895</v>
       </c>
       <c r="P4">
-        <v>0.2544455921614109</v>
+        <v>0.2909356729909895</v>
       </c>
       <c r="Q4">
-        <v>168.9825311262134</v>
+        <v>34.39422995275179</v>
       </c>
       <c r="R4">
-        <v>1520.84278013592</v>
+        <v>309.5480695747661</v>
       </c>
       <c r="S4">
-        <v>0.02537659342747354</v>
+        <v>0.005530597647267177</v>
       </c>
       <c r="T4">
-        <v>0.02537659342747355</v>
+        <v>0.005530597647267177</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>227.836517</v>
       </c>
       <c r="I5">
-        <v>0.7915951551217723</v>
+        <v>0.7995527524661065</v>
       </c>
       <c r="J5">
-        <v>0.7915951551217724</v>
+        <v>0.7995527524661064</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.999936</v>
+        <v>8.676671000000001</v>
       </c>
       <c r="N5">
-        <v>41.999808</v>
+        <v>26.030013</v>
       </c>
       <c r="O5">
-        <v>0.2017049292741484</v>
+        <v>0.1325240072999665</v>
       </c>
       <c r="P5">
-        <v>0.2017049292741485</v>
+        <v>0.1325240072999665</v>
       </c>
       <c r="Q5">
-        <v>1063.232218820971</v>
+        <v>658.9541665983024</v>
       </c>
       <c r="R5">
-        <v>9569.089969388737</v>
+        <v>5930.587499384721</v>
       </c>
       <c r="S5">
-        <v>0.1596686447775956</v>
+        <v>0.1059599348045266</v>
       </c>
       <c r="T5">
-        <v>0.1596686447775957</v>
+        <v>0.1059599348045266</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>227.836517</v>
       </c>
       <c r="I6">
-        <v>0.7915951551217723</v>
+        <v>0.7995527524661065</v>
       </c>
       <c r="J6">
-        <v>0.7915951551217724</v>
+        <v>0.7995527524661064</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>37.74750533333333</v>
+        <v>37.74750533333334</v>
       </c>
       <c r="N6">
         <v>113.242516</v>
       </c>
       <c r="O6">
-        <v>0.5438494785644405</v>
+        <v>0.5765403197090441</v>
       </c>
       <c r="P6">
-        <v>0.5438494785644407</v>
+        <v>0.576540319709044</v>
       </c>
       <c r="Q6">
-        <v>2866.753380195197</v>
+        <v>2866.753380195198</v>
       </c>
       <c r="R6">
-        <v>25800.78042175677</v>
+        <v>25800.78042175678</v>
       </c>
       <c r="S6">
-        <v>0.4305086123471133</v>
+        <v>0.4609743995310552</v>
       </c>
       <c r="T6">
-        <v>0.4305086123471134</v>
+        <v>0.4609743995310551</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>227.836517</v>
       </c>
       <c r="I7">
-        <v>0.7915951551217723</v>
+        <v>0.7995527524661065</v>
       </c>
       <c r="J7">
-        <v>0.7915951551217724</v>
+        <v>0.7995527524661064</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.66056</v>
+        <v>19.04827033333333</v>
       </c>
       <c r="N7">
-        <v>52.98168</v>
+        <v>57.144811</v>
       </c>
       <c r="O7">
-        <v>0.2544455921614109</v>
+        <v>0.2909356729909895</v>
       </c>
       <c r="P7">
-        <v>0.2544455921614109</v>
+        <v>0.2909356729909895</v>
       </c>
       <c r="Q7">
-        <v>1341.240159556507</v>
+        <v>1446.630522540366</v>
       </c>
       <c r="R7">
-        <v>12071.16143600856</v>
+        <v>13019.67470286329</v>
       </c>
       <c r="S7">
-        <v>0.2014178979970633</v>
+        <v>0.2326184181305247</v>
       </c>
       <c r="T7">
-        <v>0.2014178979970633</v>
+        <v>0.2326184181305247</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.42596933333333</v>
+        <v>17.23384333333334</v>
       </c>
       <c r="H8">
-        <v>31.277908</v>
+        <v>51.70153000000001</v>
       </c>
       <c r="I8">
-        <v>0.1086719581266445</v>
+        <v>0.1814375551492871</v>
       </c>
       <c r="J8">
-        <v>0.1086719581266445</v>
+        <v>0.1814375551492871</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.999936</v>
+        <v>8.676671000000001</v>
       </c>
       <c r="N8">
-        <v>41.999808</v>
+        <v>26.030013</v>
       </c>
       <c r="O8">
-        <v>0.2017049292741484</v>
+        <v>0.1325240072999665</v>
       </c>
       <c r="P8">
-        <v>0.2017049292741485</v>
+        <v>0.1325240072999665</v>
       </c>
       <c r="Q8">
-        <v>145.9629034046293</v>
+        <v>149.5323886688767</v>
       </c>
       <c r="R8">
-        <v>1313.666130641664</v>
+        <v>1345.79149801989</v>
       </c>
       <c r="S8">
-        <v>0.02191966962801804</v>
+        <v>0.02404483188309219</v>
       </c>
       <c r="T8">
-        <v>0.02191966962801805</v>
+        <v>0.02404483188309219</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.42596933333333</v>
+        <v>17.23384333333334</v>
       </c>
       <c r="H9">
-        <v>31.277908</v>
+        <v>51.70153000000001</v>
       </c>
       <c r="I9">
-        <v>0.1086719581266445</v>
+        <v>0.1814375551492871</v>
       </c>
       <c r="J9">
-        <v>0.1086719581266445</v>
+        <v>0.1814375551492871</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.74750533333333</v>
+        <v>37.74750533333334</v>
       </c>
       <c r="N9">
         <v>113.242516</v>
       </c>
       <c r="O9">
-        <v>0.5438494785644405</v>
+        <v>0.5765403197090441</v>
       </c>
       <c r="P9">
-        <v>0.5438494785644407</v>
+        <v>0.576540319709044</v>
       </c>
       <c r="Q9">
-        <v>393.5543330151697</v>
+        <v>650.5345931388313</v>
       </c>
       <c r="R9">
-        <v>3541.988997136527</v>
+        <v>5854.811338249481</v>
       </c>
       <c r="S9">
-        <v>0.05910118776175231</v>
+        <v>0.1046060660529973</v>
       </c>
       <c r="T9">
-        <v>0.05910118776175233</v>
+        <v>0.1046060660529973</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.42596933333333</v>
+        <v>17.23384333333334</v>
       </c>
       <c r="H10">
-        <v>31.277908</v>
+        <v>51.70153000000001</v>
       </c>
       <c r="I10">
-        <v>0.1086719581266445</v>
+        <v>0.1814375551492871</v>
       </c>
       <c r="J10">
-        <v>0.1086719581266445</v>
+        <v>0.1814375551492871</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.66056</v>
+        <v>19.04827033333333</v>
       </c>
       <c r="N10">
-        <v>52.98168</v>
+        <v>57.144811</v>
       </c>
       <c r="O10">
-        <v>0.2544455921614109</v>
+        <v>0.2909356729909895</v>
       </c>
       <c r="P10">
-        <v>0.2544455921614109</v>
+        <v>0.2909356729909895</v>
       </c>
       <c r="Q10">
-        <v>184.1284569694933</v>
+        <v>328.2749066956479</v>
       </c>
       <c r="R10">
-        <v>1657.15611272544</v>
+        <v>2954.474160260831</v>
       </c>
       <c r="S10">
-        <v>0.0276511007368741</v>
+        <v>0.0527866572131976</v>
       </c>
       <c r="T10">
-        <v>0.0276511007368741</v>
+        <v>0.0527866572131976</v>
       </c>
     </row>
   </sheetData>
